--- a/excell/24.xlsx
+++ b/excell/24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>8E</t>
   </si>
@@ -26,42 +26,28 @@
   </si>
   <si>
     <t>11E</t>
-  </si>
-  <si>
-    <t>6E</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>Понедельн.
-23 Янв.</t>
-  </si>
-  <si>
-    <t>Англ.яз. (Ольга)</t>
-  </si>
-  <si>
-    <t>География (Гриц)</t>
-  </si>
-  <si>
-    <t>Физика (ЮН)</t>
-  </si>
-  <si>
-    <t>Физика (Гриц)</t>
-  </si>
-  <si>
-    <t>Вторник
-24 Янв.</t>
   </si>
   <si>
     <t>Среда
 25 Янв.</t>
   </si>
   <si>
+    <t>Физика (Greeeg)</t>
+  </si>
+  <si>
+    <t>Физика (G1234re213)</t>
+  </si>
+  <si>
+    <t>Химия (Greeeg)</t>
+  </si>
+  <si>
     <t>Четверг
 26 Янв.</t>
   </si>
   <si>
+    <t>Химия (Дмитрий Викторович Емельяненко)</t>
+  </si>
+  <si>
     <t>Пяница
 27 Янв.</t>
   </si>
@@ -76,6 +62,10 @@
   <si>
     <t>Понедельн.
 30 Янв.</t>
+  </si>
+  <si>
+    <t>Вторник
+31 Янв.</t>
   </si>
 </sst>
 </file>
@@ -96,7 +86,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -105,13 +95,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF01"/>
+        <fgColor rgb="0000d084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f78da7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fcb900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="009E9E9E"/>
         <bgColor rgb="009E9E9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff6900"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -139,7 +144,16 @@
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -437,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +465,9 @@
     <col customWidth="1" max="4" min="4" width="17"/>
     <col customWidth="1" max="5" min="5" width="17"/>
     <col customWidth="1" max="6" min="6" width="17"/>
-    <col customWidth="1" max="7" min="7" width="17"/>
-    <col customWidth="1" max="8" min="8" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,236 +480,202 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" spans="1:8">
+    </row>
+    <row customHeight="1" ht="32" r="3" spans="1:6">
       <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="4" spans="1:6">
       <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row customHeight="1" ht="23" r="6" spans="1:6">
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="n"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="66" r="9" spans="1:6">
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="11" spans="1:6">
+      <c r="B11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="12" spans="1:6">
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7" t="n"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="66" r="15" spans="1:6">
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6" spans="1:8">
-      <c r="B6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="7" spans="1:8">
-      <c r="B7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="3" t="n">
+      <c r="F15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5" t="n"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+    <row customHeight="1" ht="23" r="16" spans="1:6">
+      <c r="B16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="17" spans="1:6">
+      <c r="B17" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23" r="18" spans="1:6">
+      <c r="B18" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="n"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B20" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="3" t="n">
+    <row r="21" spans="1:6">
+      <c r="B21" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="3" t="n">
+    <row r="22" spans="1:6">
+      <c r="B22" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="3" t="n">
+    <row r="23" spans="1:6">
+      <c r="B23" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5" t="n"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:6">
+      <c r="B24" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="n"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B26" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="3" t="n">
+    <row r="27" spans="1:6">
+      <c r="B27" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="3" t="n">
+    <row r="28" spans="1:6">
+      <c r="B28" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="3" t="n">
+    <row r="29" spans="1:6">
+      <c r="B29" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:6">
       <c r="B30" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5" t="n"/>
-    </row>
-    <row r="32" spans="1:8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7" t="n"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -705,267 +683,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:6">
       <c r="B33" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:6">
       <c r="B34" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:6">
       <c r="B35" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:6">
       <c r="B36" s="3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+    <row r="37" spans="1:6">
+      <c r="A37" s="7" t="n"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B38" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="B39" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="B40" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5" t="n"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="B42" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="5" t="n"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="5" t="n"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="B63" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="B68" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" s="3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="5" t="n"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="B74" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" s="3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="B80" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A42:A50"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A62:A70"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A71:H71"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
